--- a/Soothsayer_for_Risk_Analysis_1.0.2.xlsx
+++ b/Soothsayer_for_Risk_Analysis_1.0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\soothsayer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E16FD9-A83C-4012-8163-2B788D0F7C67}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550CA844-7BBC-4DE6-BF12-91F53E0F5790}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12587,9 +12587,9 @@
       <c r="E10">
         <v>0.25</v>
       </c>
-      <c r="F10" s="39" t="e">
+      <c r="F10" s="39">
         <f ca="1">IF(RAND()&lt;E10,_xll.RiskPert(A10,B10,C10),0)</f>
-        <v>#NAME?</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -12697,9 +12697,9 @@
       <c r="E15">
         <v>0.25</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="39" t="e">
         <f ca="1">IF(RAND()&lt;E15,_xll.RiskPert(A15,B15,C15),0)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
